--- a/data/trans_dic/P32E$eventos_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$eventos_2023-Edad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -990,7 +990,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$eventos_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$eventos_2023-Edad-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.4612998961136124</v>
+        <v>0.4447750074705312</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2082823011975606</v>
+        <v>0.1981975382197586</v>
       </c>
     </row>
     <row r="7">
@@ -648,10 +648,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.4528433538789065</v>
+        <v>0.4221072005778205</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1949174234755721</v>
+        <v>0.1897949817677709</v>
       </c>
     </row>
     <row r="10">
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.04943236682887498</v>
+        <v>0.04943236682887496</v>
       </c>
     </row>
     <row r="14">
@@ -741,11 +741,11 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2290234378894893</v>
+        <v>0.2066443061983668</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.1464946221044198</v>
+        <v>0.1678194778684416</v>
       </c>
     </row>
     <row r="16">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.07296322691372881</v>
+        <v>0.07296322691372878</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0</v>
@@ -835,11 +835,11 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4295105741614609</v>
+        <v>0.3200811032411777</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.2494336088582079</v>
+        <v>0.2859202443152744</v>
       </c>
     </row>
     <row r="22">
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.005588732106044193</v>
+        <v>0.005553815850899205</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02642293420346502</v>
+        <v>0.02354418414981079</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01477083633735992</v>
+        <v>0.01580313598720652</v>
       </c>
     </row>
     <row r="27">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04871288218933682</v>
+        <v>0.05432113028528174</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1823764713317461</v>
+        <v>0.1883524253602137</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.07580308796015882</v>
+        <v>0.0745186549424373</v>
       </c>
     </row>
     <row r="28">
@@ -1098,10 +1098,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>8285</v>
+        <v>7989</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9896</v>
+        <v>9417</v>
       </c>
     </row>
     <row r="8">
@@ -1166,10 +1166,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>7233</v>
+        <v>6742</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8556</v>
+        <v>8331</v>
       </c>
     </row>
     <row r="12">
@@ -1293,11 +1293,11 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6978</v>
+        <v>6296</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>6036</v>
+        <v>6915</v>
       </c>
     </row>
     <row r="20">
@@ -1421,11 +1421,11 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6215</v>
+        <v>4632</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>4569</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="28">
@@ -1534,13 +1534,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1696</v>
+        <v>1511</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3333</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="35">
@@ -1551,13 +1551,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>7866</v>
+        <v>8772</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>11706</v>
+        <v>12090</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>17106</v>
+        <v>16816</v>
       </c>
     </row>
     <row r="36">
